--- a/octanol30pct-avoidance-210810.xlsx
+++ b/octanol30pct-avoidance-210810.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\friv\git\cest-2.1-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D835B8-80BA-4E7A-9B3B-F673FD61EDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DF5D31-C726-42E1-9415-FAC988E8C23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{287B09D0-8988-422D-BF0C-F151308AEB4E}"/>
   </bookViews>
@@ -66,10 +66,10 @@
     <t>oct</t>
   </si>
   <si>
-    <t>cest 2.1</t>
+    <t>JB</t>
   </si>
   <si>
-    <t>JB</t>
+    <t>cest-2.1</t>
   </si>
 </sst>
 </file>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5709BA5-B4BA-4E77-9863-2F5F9D3DD021}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,7 +602,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -797,7 +797,7 @@
         <v>1.99</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -817,7 +817,7 @@
         <v>2.58</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -837,7 +837,7 @@
         <v>5.41</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -857,7 +857,7 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -877,7 +877,7 @@
         <v>2.63</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -897,7 +897,7 @@
         <v>6.8</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -917,7 +917,7 @@
         <v>2.52</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -937,7 +937,7 @@
         <v>3.68</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -957,7 +957,7 @@
         <v>1.78</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -977,7 +977,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -997,7 +997,7 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1017,7 +1017,7 @@
         <v>6.68</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1037,7 +1037,7 @@
         <v>8.19</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1057,7 +1057,7 @@
         <v>3.3</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1077,7 +1077,7 @@
         <v>4.76</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1097,7 +1097,7 @@
         <v>4.83</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1117,7 +1117,7 @@
         <v>3.77</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1137,7 +1137,7 @@
         <v>2.66</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1157,7 +1157,7 @@
         <v>3.79</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1177,12 +1177,12 @@
         <v>8.4700000000000006</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1197,12 +1197,12 @@
         <v>7.34</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1217,12 +1217,12 @@
         <v>1.99</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1237,12 +1237,12 @@
         <v>3.17</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -1257,12 +1257,12 @@
         <v>3.01</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -1277,12 +1277,12 @@
         <v>3.79</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -1297,12 +1297,12 @@
         <v>3.17</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -1317,12 +1317,12 @@
         <v>3.34</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -1337,12 +1337,12 @@
         <v>6.68</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -1357,12 +1357,12 @@
         <v>5.29</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -1377,12 +1377,12 @@
         <v>1.61</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>11</v>
@@ -1397,12 +1397,12 @@
         <v>4.42</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>12</v>
@@ -1417,12 +1417,12 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>13</v>
@@ -1437,12 +1437,12 @@
         <v>1.21</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>14</v>
@@ -1457,12 +1457,12 @@
         <v>2.35</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>15</v>
@@ -1477,12 +1477,12 @@
         <v>3.49</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>16</v>
@@ -1497,12 +1497,12 @@
         <v>1.73</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>17</v>
@@ -1517,12 +1517,12 @@
         <v>3.3</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>18</v>
@@ -1537,12 +1537,12 @@
         <v>2.89</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56">
         <v>19</v>
@@ -1557,12 +1557,12 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>20</v>
@@ -1577,7 +1577,7 @@
         <v>2.46</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
